--- a/biology/Botanique/Wrangeliaceae/Wrangeliaceae.xlsx
+++ b/biology/Botanique/Wrangeliaceae/Wrangeliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Wrangeliaceae sont une famille d’algues rouges de l’ordre des Ceramiales, sous-ordre des Spermothamniineae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (1 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (1 février 2019) :
 tribu des Dasyphileae F.Schmitz &amp; Hauptfleisch
 tribu des Griffithsieae Schmitz &amp; Hauptfleisch
 tribu des Halosieae M.Cormaci &amp; G.Furnari
@@ -568,7 +582,7 @@
 genre Woelkerlingia Alongi, Cormaci &amp; G.Furnari
 genre Wollastoniella E.M.Gordon
 genre Wrangelia C.Agardh
-Selon Catalogue of Life                                   (1 février 2019)[2] :
+Selon Catalogue of Life                                   (1 février 2019) :
 genre Anisoschizus
 genre Anotrichium
 genre Antarcticothamnion
@@ -623,14 +637,14 @@
 genre Woelkerlingia
 genre Wollastoniella
 genre Wrangelia
-Selon World Register of Marine Species                               (1 février 2019)[3] :
+Selon World Register of Marine Species                               (1 février 2019) :
 tribu des Griffithsieae Schmitz, 1889
 tribu des Lejolisieae Feldmann-Mazoyer, 1941
 tribu des Monosporeae Schmitz &amp; Hauptfleisch, 1897
 tribu des Spermothamnieae Schmitz, 1889
 tribu des Sphondylothamnieae Feldmann-Mazoyer, 1941
 tribu des Wrangelieae Schmitz, 1889
-Selon World Register of Marine Species                               (1 février 2019)[3] :
+Selon World Register of Marine Species                               (1 février 2019) :
 genre Anisoschizus Huisman &amp; Kraft, 1982
 genre Anotrichium Nägeli, 1862
 genre Baldockia A.J.K.Millar, 1986
